--- a/excels/技能表.xlsx
+++ b/excels/技能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\x-template\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC55D6-005A-4E42-A2B7-41A104837974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517552AB-21D5-49BB-9AEE-913111016162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{12E03100-0083-4591-82B6-AE44D6148A4E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT | DOTA_ABILITY_BEHAVIOR_AOE</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -296,15 +296,66 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>examples/abilities/crystal_nova_x.lua</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>技能键值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>键值描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter_helix_x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击螺旋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到一定次数攻击后，斧王就会做出螺旋反击，对附近所有敌方单位造成纯粹伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预载资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precache</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage 75 110 145 180</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius 275</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit_count 7 6 5 4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需攻击次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe_counter_helix</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"soundfile"	"soundevents/game_sounds_heroes/game_sounds_axe.vsndevts"
+	"particle"	"particles/units/heroes/hero_axe/axe_counterhelix_ad.vpcf"
+}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +448,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,6 +459,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -723,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E96040-265A-4A93-876C-FCCB37D3CA62}">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -754,7 +808,7 @@
     <col min="26" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -772,10 +826,10 @@
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>62</v>
@@ -813,8 +867,11 @@
       <c r="AI1" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="AJ1" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" s="3" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" s="3" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
@@ -920,8 +977,11 @@
       <c r="AI2" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="AJ2" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -934,8 +994,9 @@
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>69</v>
+      <c r="E3" s="5" t="str">
+        <f>"examples/abilities/"&amp;A3&amp;".lua"</f>
+        <v>examples/abilities/crystal_nova_x.lua</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
@@ -1002,6 +1063,51 @@
       </c>
       <c r="AI3" s="1">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f>"examples/abilities/"&amp;A4&amp;".lua"</f>
+        <v>examples/abilities/counter_helix_x.lua</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/excels/技能表.xlsx
+++ b/excels/技能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\x-template\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517552AB-21D5-49BB-9AEE-913111016162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E6BD51-3A27-4406-985B-9F329F4CCBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{12E03100-0083-4591-82B6-AE44D6148A4E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT | DOTA_ABILITY_BEHAVIOR_AOE</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -356,6 +356,79 @@
 	"soundfile"	"soundevents/game_sounds_heroes/game_sounds_axe.vsndevts"
 	"particle"	"particles/units/heroes/hero_axe/axe_counterhelix_ad.vpcf"
 }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny_toss_x</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability_lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration 1.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grab_radius 275</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被投掷者额外伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toss_damage 200 250 300 350</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny_toss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+            "particle"  "particles/units/heroes/hero_tiny/tiny_toss_blur.vpcf"
+		}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityUnitDamageType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMAGE_TYPE_MAGICAL</t>
+  </si>
+  <si>
+    <t>DAMAGE_TYPE_MAGICAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAMAGE_TYPE_PURE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷的技能描述！（懒得去找了）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus_damage_pct 30 60 90</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -777,10 +850,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E96040-265A-4A93-876C-FCCB37D3CA62}">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -805,10 +881,12 @@
     <col min="21" max="22" width="15.640625" style="1" customWidth="1"/>
     <col min="23" max="24" width="8.7109375" style="1"/>
     <col min="25" max="25" width="16.78515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.7109375" style="1"/>
+    <col min="26" max="36" width="8.7109375" style="1"/>
+    <col min="37" max="37" width="16.640625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -846,32 +924,35 @@
       <c r="AB1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="3" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" s="3" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
@@ -957,31 +1038,34 @@
         <v>29</v>
       </c>
       <c r="AC2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -1055,17 +1139,20 @@
       <c r="AB3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AI3" s="1">
         <v>700</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AJ3" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -1106,8 +1193,80 @@
       <c r="AA4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AC4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK4" s="6" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f>"examples/abilities/"&amp;A5&amp;".lua"</f>
+        <v>examples/abilities/tiny_toss_x.lua</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="X5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>70</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/excels/技能表.xlsx
+++ b/excels/技能表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\x-template\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\x-template\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E6BD51-3A27-4406-985B-9F329F4CCBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09C460E-DCFA-494F-8400-2A9E8ACF25E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{12E03100-0083-4591-82B6-AE44D6148A4E}"/>
+    <workbookView xWindow="2297" yWindow="2683" windowWidth="24694" windowHeight="13174" xr2:uid="{12E03100-0083-4591-82B6-AE44D6148A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="abilities" sheetId="1" r:id="rId1"/>
@@ -37,99 +37,99 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT | DOTA_ABILITY_BEHAVIOR_AOE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DOTA_ABILITY_TYPE_BASIC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>crystal_maiden_crystal_nova</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>100 120 140 160</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>12.0 12.0 12.0 12.0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>nova_damage 100 150 200 250</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>视野范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>vision_radius 900</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>视野持续时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>vision_duration 6.0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>攻击速度降低</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>attackspeed_slow -20 -30 -40 -50</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>移动速度降低</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>movespeed_slow -20 -30 -40 -50</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>aoe_radius 400</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>持续时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>duration 4.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>召唤具有破坏性的冰爆，降低目标区域内的敌人的移动速度。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>冰霜新星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastPoint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AbilityCastRange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SpellImmunityType</t>
@@ -148,7 +148,7 @@
   </si>
   <si>
     <t>AbilityType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AbilityTextureName</t>
@@ -164,7 +164,7 @@
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
@@ -174,7 +174,7 @@
   </si>
   <si>
     <t>#ValuesLoc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
@@ -193,256 +193,263 @@
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AbilityValues[{]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ScriptFile</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>BaseClass</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>#Locdota_tooltip_ability_{}_Description</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>#Locdota_tooltip_ability_{}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>施法前摇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>施法距离</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>无视魔免</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>目标标签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>目标类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>魔法消耗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>冷却时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最大等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>脚本路径</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>基类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>crystal_nova_x</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能键值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>键值描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>counter_helix_x</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>反击螺旋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>受到一定次数攻击后，斧王就会做出螺旋反击，对附近所有敌方单位造成纯粹伤害。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>预载资源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Precache</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>damage 75 110 145 180</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>radius 275</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>范围</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>hit_count 7 6 5 4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>所需攻击次数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>axe_counter_helix</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
 	"soundfile"	"soundevents/game_sounds_heroes/game_sounds_axe.vsndevts"
 	"particle"	"particles/units/heroes/hero_axe/axe_counterhelix_ad.vpcf"
 }</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tiny_toss_x</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>投掷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ability_lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>duration 1.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>持续事件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>grab_radius 275</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>被投掷者额外伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>toss_damage 200 250 300 350</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>投掷伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tiny_toss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
             "particle"  "particles/units/heroes/hero_tiny/tiny_toss_blur.vpcf"
 		}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技能伤害类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AbilityUnitDamageType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DAMAGE_TYPE_MAGICAL</t>
   </si>
   <si>
     <t>DAMAGE_TYPE_MAGICAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DAMAGE_TYPE_PURE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>投掷的技能描述！（懒得去找了）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bonus_damage_pct 30 60 90</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷的技能描述！（懒得去找了）你们自己看看这对不对吧！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,22 +526,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -856,7 +864,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1207,8 +1215,8 @@
       <c r="B5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>100</v>
+      <c r="C5" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>86</v>
@@ -1233,7 +1241,7 @@
         <v>79</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>90</v>
@@ -1270,7 +1278,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excels/技能表.xlsx
+++ b/excels/技能表.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\x-template\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\x-template\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09C460E-DCFA-494F-8400-2A9E8ACF25E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC857CD-94D5-4DD9-B492-E9279F253E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2297" yWindow="2683" windowWidth="24694" windowHeight="13174" xr2:uid="{12E03100-0083-4591-82B6-AE44D6148A4E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{12E03100-0083-4591-82B6-AE44D6148A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="abilities" sheetId="1" r:id="rId1"/>
+    <sheet name="__常用键值" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="159">
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_POINT | DOTA_ABILITY_BEHAVIOR_AOE</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -429,6 +430,213 @@
   </si>
   <si>
     <t>投掷的技能描述！（懒得去找了）你们自己看看这对不对吧！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseClass</t>
+  </si>
+  <si>
+    <t>ScriptFile</t>
+  </si>
+  <si>
+    <t>AbilityCastAnimation</t>
+  </si>
+  <si>
+    <t>AbilityCastPoint</t>
+  </si>
+  <si>
+    <t>AbilityCastRange</t>
+  </si>
+  <si>
+    <t>AbilityCastRangeBuffer</t>
+  </si>
+  <si>
+    <t>AbilityChannelAnimation</t>
+  </si>
+  <si>
+    <t>AbilityChannelTime</t>
+  </si>
+  <si>
+    <t>AbilityChargeRestoreTime</t>
+  </si>
+  <si>
+    <t>AbilityCharges</t>
+  </si>
+  <si>
+    <t>AbilityDamage</t>
+  </si>
+  <si>
+    <t>AbilityDuration</t>
+  </si>
+  <si>
+    <t>AbilityHealthCost</t>
+  </si>
+  <si>
+    <t>AbilityGoldCost</t>
+  </si>
+  <si>
+    <t>AbilitySharedCooldown</t>
+  </si>
+  <si>
+    <t>AbilityType</t>
+  </si>
+  <si>
+    <t>AbilityUnitDamageType</t>
+  </si>
+  <si>
+    <t>RequiredLevel</t>
+  </si>
+  <si>
+    <t>LevelsBetweenUpgrades</t>
+  </si>
+  <si>
+    <t>precache</t>
+  </si>
+  <si>
+    <t>AbilityValues</t>
+  </si>
+  <si>
+    <t>技能类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里只推荐使用ability_lua这一个类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能脚本路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从vscripts开始</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法动作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法前摇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了BaseClass与ScriptFile，其他的基本都可以到脚本里面利用返回值来写</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法距离</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法缓冲距离</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续施法动作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如这个在脚本里面是 override GetCastAnimation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续施法时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能充能恢复时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能充能数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能持续时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法消耗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命消耗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币消耗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享冷却的技能名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为大招（影响技能几级可以加点）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位伤害类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位目标标记</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能敌我标记</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能目标类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能预载</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能数值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前还有一个AbilitySpecial，但是已经弃用，这里只推荐使用AbilityValues</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级间隔</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +644,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +697,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -528,7 +744,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,6 +759,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -864,7 +1086,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1282,4 +1504,310 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A48F2D-D029-4E8E-8E73-6DD8610360AC}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/excels/技能表.xlsx
+++ b/excels/技能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\x-template\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC857CD-94D5-4DD9-B492-E9279F253E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF6821F-31B9-409C-BFC6-D532C62C558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{12E03100-0083-4591-82B6-AE44D6148A4E}"/>
   </bookViews>
@@ -1086,7 +1086,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1094,21 +1094,20 @@
     <col min="1" max="1" width="20.0703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.35546875" style="1" customWidth="1"/>
     <col min="3" max="6" width="8.7109375" style="1"/>
-    <col min="7" max="7" width="15.640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.78515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.78515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.78515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.78515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.78515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.78515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.78515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="15.640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.78515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.78515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.78515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.78515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.78515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.78515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.78515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="15.640625" style="1" customWidth="1"/>
     <col min="23" max="24" width="8.7109375" style="1"/>
     <col min="25" max="25" width="16.78515625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="36" width="8.7109375" style="1"/>
@@ -1134,10 +1133,10 @@
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>62</v>
@@ -1202,46 +1201,46 @@
         <v>45</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>36</v>
@@ -1313,46 +1312,46 @@
         <v>examples/abilities/crystal_nova_x.lua</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="O3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="Q3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="X3" s="1">
         <v>4</v>
@@ -1400,22 +1399,22 @@
         <v>examples/abilities/counter_helix_x.lua</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="I4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="K4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="X4" s="1">
         <v>4</v>
@@ -1448,31 +1447,31 @@
         <v>examples/abilities/tiny_toss_x.lua</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="M5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="O5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="X5" s="1">
         <v>4</v>
